--- a/transistor_count.xlsx
+++ b/transistor_count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjagielski\Documents\Projects\temp_compare_circuit\whack-2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03F9D1F1-2874-4479-A8D2-81107FCE769B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776E7558-8C53-4485-B0A4-1A068D971864}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{DB27A058-5D00-4A44-9DFC-2D1E5AD559DB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Transistors</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>Number Used RCA Comparator</t>
+  </si>
+  <si>
+    <t>Shift Register Count</t>
+  </si>
+  <si>
+    <t>and</t>
   </si>
 </sst>
 </file>
@@ -418,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5C4EACB-0B6F-49D7-B735-ED32F7C8DDCC}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -430,14 +436,15 @@
     <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -457,10 +464,13 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -480,11 +490,15 @@
         <v>20</v>
       </c>
       <c r="G3">
-        <f>B3+SUM(C3:F3)</f>
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <f>2*8*4</f>
+        <v>64</v>
+      </c>
+      <c r="H3">
+        <f>B3+SUM(C3:G3)</f>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -504,11 +518,15 @@
         <v>27</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G5" si="0">B4+SUM(C4:F4)</f>
+        <f>0*8*4</f>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f>B4+SUM(C4:G4)</f>
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -528,14 +546,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <f>1*8*4</f>
+        <v>32</v>
+      </c>
+      <c r="H5">
+        <f>B5+SUM(C5:G5)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
       <c r="G6">
-        <f>SUM(G3:G5)</f>
-        <v>200</v>
+        <f>2*8*4</f>
+        <v>64</v>
+      </c>
+      <c r="H6">
+        <f>B6*SUM(C6:G6)</f>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H7">
+        <f>SUM(H3:H6)</f>
+        <v>680</v>
       </c>
     </row>
   </sheetData>
